--- a/www/skin.xlsx
+++ b/www/skin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Users/Users/john/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/Clients/r/reviseR/www/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7818CAEF-6F29-4243-94C6-9F9AF821A230}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505C1327-70F8-A544-960D-E420DF62A340}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30780" yWindow="2020" windowWidth="28040" windowHeight="17440" xr2:uid="{75AEF49E-9248-134F-BD7C-8C840DEAD4B8}"/>
+    <workbookView xWindow="-35340" yWindow="1740" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{75AEF49E-9248-134F-BD7C-8C840DEAD4B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="145">
   <si>
     <t>Category</t>
   </si>
@@ -92,13 +92,402 @@
   </si>
   <si>
     <t>The layers of the dermis are</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In which of the following layers are epidermal cells constantly being reproduced? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">horny layer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">granular layer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">basal cell layer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">clear layer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desquamation occurs in which layer of the epidermis? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">prickle-cell layer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The correct order of the layers of the epidermis, from deepest to most superficial, is as follows </t>
+  </si>
+  <si>
+    <t xml:space="preserve">basal cell layer, prickle-cell layer, clear layer, granular layer, horny layer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">basal cell layer, prickle-cell layer, granular layer, clear layer, horny layer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">basal cell layer, horny layer, clear layer, granular layer, prickle-cell layer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">basal cell layer, granular layer, prickle-cell layer, clear layer, horny layer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The erector pili muscle affects </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the hair </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the sebaceous gland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">motor nerves </t>
+  </si>
+  <si>
+    <t xml:space="preserve">capillary network </t>
+  </si>
+  <si>
+    <t xml:space="preserve">secrete sweat </t>
+  </si>
+  <si>
+    <t xml:space="preserve">secrete sebum </t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulate temperature </t>
+  </si>
+  <si>
+    <t xml:space="preserve">insulate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The function of the sebaceous gland is to </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which of the following is responsible for making the skin pigmentation darker? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">keratin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">melanin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sebum </t>
+  </si>
+  <si>
+    <t xml:space="preserve">carotene </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The epidermis does not have its own system of blood vessels </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The muscle layer in the skin lies beneath the dermis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweat glands open into a hair follicle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melanin is produced by special cells called phagocytes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which of the following statements is TRUE? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which of the following is NOT a function of the skin? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">protection </t>
+  </si>
+  <si>
+    <t xml:space="preserve">temperature regulation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">transportation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">excretion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">reticulin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">none of the above </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The tough protein found in the epidermis, hair and nails is </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In which layer of the skin would you find collagen fibres? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the papillary layer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the basal cell layer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the subcutaneous layer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the reticular layer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">support blood vessels </t>
+  </si>
+  <si>
+    <t xml:space="preserve">insulate the body </t>
+  </si>
+  <si>
+    <t xml:space="preserve">support nerve endings </t>
+  </si>
+  <si>
+    <t xml:space="preserve">all of the above </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the body is losing heat the blood capillaries near the surface constrict </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The evaporation of sweat from the surface of the skin heats the body </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When heat needs to be retained the erector pili muscle contracts </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adipose tissue in the dermis and subcutaneous layer insulates against heat loss </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The function of the subcutaneous layer is to </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which of the following statements is FALSE? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which of the following is a fungal infection in the skin? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">impetigo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">herpes simplex </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ringworm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">herpes zoster </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tinea pedis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">conjunctivitis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">scabies </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which of the following would represent a contraindication to therapy treatments due to cross-infection? </t>
+  </si>
+  <si>
+    <t>What is meant by the term erythema in the skin?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a mass of dilated capillaries in the skin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a small raised elevation in the skin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a mark left on the skin after a wound has healed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">reddening of the skin due to the dilation of blood capillaries </t>
+  </si>
+  <si>
+    <t xml:space="preserve">squamous cell carcinoma </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rodent ulcer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">basal cell carcinoma </t>
+  </si>
+  <si>
+    <t xml:space="preserve">malignant melanoma </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The most lethal type of skin cancer is </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cuticle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cortex </t>
+  </si>
+  <si>
+    <t xml:space="preserve">medulla </t>
+  </si>
+  <si>
+    <t xml:space="preserve">matrix </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hair growth occurs from the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hair grows from a sac-like depression called the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hair shaft </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hair root </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hair follicle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hair bulb </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hair shaft, hair root and hair bulb </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cuticle, cortex and medulla </t>
+  </si>
+  <si>
+    <t xml:space="preserve">outer root sheath, inner root sheath and hair shaft </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The three layers of the internal hair structure are </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where are terminal hairs found in the body? </t>
+  </si>
+  <si>
+    <t>Which of the following provides a crucial source of nourishment for hair?</t>
+  </si>
+  <si>
+    <t>Which of the following statements is TRUE in relation to the hair growth cycle?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">on the scalp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">under the arms </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pubic region </t>
+  </si>
+  <si>
+    <t xml:space="preserve">connective tissue sheath </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dermal papilla </t>
+  </si>
+  <si>
+    <t xml:space="preserve">outer root sheath </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inner root sheath </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catagen is a short resting stage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anagen lasts approximately two to four weeks </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anagen is the active growing stage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In anagen the hair separates from the dermal papilla and moves slowly up the follicle </t>
+  </si>
+  <si>
+    <t>Hair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The substance the nail is mainly composed of is </t>
+  </si>
+  <si>
+    <t>The area of the nail where living cells are produced is</t>
+  </si>
+  <si>
+    <t>The part of the nail that protects the matrix and provides a protective seal against bacteria is</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calcium </t>
+  </si>
+  <si>
+    <t xml:space="preserve">blood </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nail bed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lunula </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nail wall </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nail groove </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Which of the following statements is </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>TRUE?</t>
+    </r>
+  </si>
+  <si>
+    <t>All nutrients are supplied to the nail via which layer of the skin?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A common nail disease characterised by inflammation and bacterial infection of the skin surrounding the nail is </t>
+  </si>
+  <si>
+    <t>Nail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The average growth rate of a nail is 6 mm per month </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fingernails have a slower growth rate than toenails </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nail growth occurs from the matrix by cell division </t>
+  </si>
+  <si>
+    <t>It takes approximately three months for cells to travel from the lunula to the free edge of the nail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the epidermis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the dermis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pterygium </t>
+  </si>
+  <si>
+    <t xml:space="preserve">onychomycosis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">paronychia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">leuconychia </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -122,6 +511,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -143,7 +544,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -154,6 +555,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,17 +875,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8A4190-821E-5141-8EE6-FFBFC191691E}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.83203125" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="43.1640625" customWidth="1"/>
+    <col min="4" max="4" width="67.33203125" style="3" customWidth="1"/>
     <col min="5" max="5" width="54" style="3" customWidth="1"/>
   </cols>
   <sheetData>
@@ -492,7 +899,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -505,7 +912,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -515,11 +922,11 @@
       <c r="C2">
         <v>1001</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -529,11 +936,11 @@
       <c r="C3">
         <v>1002</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -543,49 +950,401 @@
       <c r="C4">
         <v>1003</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
     </row>
+    <row r="5" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>1004</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>1005</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="31" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>1006</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>1007</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>1008</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>1009</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>1010</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>1011</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>1012</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>1013</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>1014</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>1015</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>1016</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>1017</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>1018</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>1019</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21">
+        <v>1020</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22">
+        <v>1021</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23">
+        <v>1022</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24">
+        <v>1023</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25">
+        <v>1024</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26">
+        <v>1025</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>134</v>
+      </c>
+      <c r="C27">
+        <v>1026</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28">
+        <v>1027</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="31" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29">
+        <v>1028</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30">
+        <v>1029</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31">
+        <v>1030</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="31" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32">
+        <v>1031</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>133</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -594,11 +1353,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83DF9C1B-75A2-E34D-B3C5-7E9DE5A0F39E}">
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:G122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H123" sqref="H123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -766,329 +1525,1679 @@
         <v>8</v>
       </c>
     </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>1004</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>1004</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>1004</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>1004</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>1005</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>1005</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>1005</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>1005</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>1006</v>
+      </c>
+      <c r="E19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>1006</v>
+      </c>
+      <c r="E20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>1006</v>
+      </c>
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>1006</v>
+      </c>
+      <c r="E22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>1007</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24">
+        <v>1007</v>
+      </c>
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>1007</v>
+      </c>
+      <c r="E25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <v>1007</v>
+      </c>
+      <c r="E26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27">
+        <v>1008</v>
+      </c>
+      <c r="E27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28">
+        <v>1008</v>
+      </c>
+      <c r="E28" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29">
+        <v>1008</v>
+      </c>
+      <c r="E29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30">
+        <v>1008</v>
+      </c>
+      <c r="E30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31">
+        <v>1009</v>
+      </c>
+      <c r="E31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32">
+        <v>1009</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33">
+        <v>1009</v>
+      </c>
       <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
+      <c r="E33" s="4" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34">
+        <v>1009</v>
+      </c>
       <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
+      <c r="E34" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="4"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="4">
+        <v>1010</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="4">
+        <v>1010</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="E37" s="4"/>
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="4">
+        <v>1010</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="E38" s="4"/>
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="4">
+        <v>1010</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="E39" s="4"/>
+      <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="4">
+        <v>1011</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="E40" s="4"/>
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="4">
+        <v>1011</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="E41" s="4"/>
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="4">
+        <v>1011</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F41" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="E42" s="4"/>
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="4">
+        <v>1011</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="E43" s="4"/>
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="4">
+        <v>1012</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="E44" s="4"/>
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="4">
+        <v>1012</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="E45" s="5"/>
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="4">
+        <v>1012</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="E46" s="4"/>
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="4">
+        <v>1012</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="E46" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="4">
+        <v>1013</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="E48" s="5"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="E49" s="4"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="E51" s="4"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="E52" s="4"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="E53" s="4"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="E54" s="4"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="E55" s="4"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="E56" s="4"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="E57" s="4"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="E58" s="4"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="E59" s="4"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="E60" s="4"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="E61" s="4"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="E62" s="4"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="E63" s="4"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="E64" s="4"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="E65" s="4"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="E66" s="4"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="E67" s="4"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="E68" s="4"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="E69" s="4"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="E70" s="4"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="E71" s="4"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="4"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="E72" s="4"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="E73" s="4"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="4"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="E74" s="4"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="E75" s="4"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C76" s="4"/>
-      <c r="E76" s="4"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C77" s="4"/>
-      <c r="E77" s="4"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C78" s="4"/>
-      <c r="E78" s="4"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C79" s="4"/>
-      <c r="E79" s="4"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E80" s="4"/>
-    </row>
-    <row r="81" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C81" s="4"/>
-      <c r="E81" s="4"/>
-    </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C82" s="4"/>
-      <c r="E82" s="4"/>
-    </row>
-    <row r="83" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C83" s="4"/>
-      <c r="E83" s="4"/>
-    </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C84" s="4"/>
-      <c r="E84" s="4"/>
-    </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C85" s="4"/>
-      <c r="E85" s="4"/>
-    </row>
-    <row r="86" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C86" s="4"/>
-      <c r="E86" s="4"/>
-    </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C87" s="4"/>
-      <c r="E87" s="4"/>
-    </row>
-    <row r="88" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C88" s="4"/>
-      <c r="E88" s="4"/>
-    </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C89" s="4"/>
-      <c r="E89" s="4"/>
-    </row>
-    <row r="90" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C90" s="4"/>
-      <c r="E90" s="4"/>
-    </row>
-    <row r="91" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C91" s="4"/>
-      <c r="E91" s="4"/>
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="4">
+        <v>1013</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="4">
+        <v>1013</v>
+      </c>
+      <c r="E49" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="4">
+        <v>1013</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="4">
+        <v>1014</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="4">
+        <v>1014</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="4">
+        <v>1014</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="4">
+        <v>1014</v>
+      </c>
+      <c r="D54">
+        <v>4</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="4">
+        <v>1015</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="4">
+        <v>1015</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="4">
+        <v>1015</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="4">
+        <v>1015</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="4">
+        <v>1016</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="4">
+        <v>1016</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="4">
+        <v>1016</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F61" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="4">
+        <v>1016</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="4">
+        <v>1017</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="4">
+        <v>1017</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="4">
+        <v>1017</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="4">
+        <v>1017</v>
+      </c>
+      <c r="D66">
+        <v>4</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="4">
+        <v>1018</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="4">
+        <v>1018</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="4">
+        <v>1018</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="4">
+        <v>1018</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="4">
+        <v>1019</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" s="4">
+        <v>1019</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>12</v>
+      </c>
+      <c r="B73" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" s="4">
+        <v>1019</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" s="4">
+        <v>1019</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F74" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75" t="s">
+        <v>121</v>
+      </c>
+      <c r="C75" s="4">
+        <v>1020</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" t="s">
+        <v>121</v>
+      </c>
+      <c r="C76" s="4">
+        <v>1020</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77" t="s">
+        <v>121</v>
+      </c>
+      <c r="C77" s="4">
+        <v>1020</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78" t="s">
+        <v>121</v>
+      </c>
+      <c r="C78" s="4">
+        <v>1020</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F78" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>12</v>
+      </c>
+      <c r="B79" t="s">
+        <v>121</v>
+      </c>
+      <c r="C79" s="4">
+        <v>1021</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" t="s">
+        <v>121</v>
+      </c>
+      <c r="C80" s="4">
+        <v>1021</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81" t="s">
+        <v>121</v>
+      </c>
+      <c r="C81" s="4">
+        <v>1021</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F81" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>12</v>
+      </c>
+      <c r="B82" t="s">
+        <v>121</v>
+      </c>
+      <c r="C82" s="4">
+        <v>1021</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>12</v>
+      </c>
+      <c r="B83" t="s">
+        <v>121</v>
+      </c>
+      <c r="C83" s="4">
+        <v>1022</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>12</v>
+      </c>
+      <c r="B84" t="s">
+        <v>121</v>
+      </c>
+      <c r="C84" s="4">
+        <v>1022</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F84" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>12</v>
+      </c>
+      <c r="B85" t="s">
+        <v>121</v>
+      </c>
+      <c r="C85" s="4">
+        <v>1022</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" t="s">
+        <v>121</v>
+      </c>
+      <c r="C86" s="4">
+        <v>1022</v>
+      </c>
+      <c r="D86">
+        <v>4</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>12</v>
+      </c>
+      <c r="B87" t="s">
+        <v>121</v>
+      </c>
+      <c r="C87" s="4">
+        <v>1023</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88" t="s">
+        <v>121</v>
+      </c>
+      <c r="C88" s="4">
+        <v>1023</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>12</v>
+      </c>
+      <c r="B89" t="s">
+        <v>121</v>
+      </c>
+      <c r="C89" s="4">
+        <v>1023</v>
+      </c>
+      <c r="E89" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>12</v>
+      </c>
+      <c r="B90" t="s">
+        <v>121</v>
+      </c>
+      <c r="C90" s="4">
+        <v>1023</v>
+      </c>
+      <c r="E90" t="s">
+        <v>67</v>
+      </c>
+      <c r="F90" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>12</v>
+      </c>
+      <c r="B91" t="s">
+        <v>121</v>
+      </c>
+      <c r="C91">
+        <v>1024</v>
+      </c>
+      <c r="E91" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>12</v>
+      </c>
+      <c r="B92" t="s">
+        <v>121</v>
+      </c>
+      <c r="C92">
+        <v>1024</v>
+      </c>
+      <c r="E92" t="s">
+        <v>114</v>
+      </c>
+      <c r="F92" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>12</v>
+      </c>
+      <c r="B93" t="s">
+        <v>121</v>
+      </c>
+      <c r="C93">
+        <v>1024</v>
+      </c>
+      <c r="E93" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>12</v>
+      </c>
+      <c r="B94" t="s">
+        <v>121</v>
+      </c>
+      <c r="C94">
+        <v>1024</v>
+      </c>
+      <c r="E94" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>12</v>
+      </c>
+      <c r="B95" t="s">
+        <v>121</v>
+      </c>
+      <c r="C95">
+        <v>1025</v>
+      </c>
+      <c r="E95" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>12</v>
+      </c>
+      <c r="B96" t="s">
+        <v>121</v>
+      </c>
+      <c r="C96">
+        <v>1025</v>
+      </c>
+      <c r="E96" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>12</v>
+      </c>
+      <c r="B97" t="s">
+        <v>121</v>
+      </c>
+      <c r="C97">
+        <v>1025</v>
+      </c>
+      <c r="E97" t="s">
+        <v>119</v>
+      </c>
+      <c r="F97" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>12</v>
+      </c>
+      <c r="B98" t="s">
+        <v>121</v>
+      </c>
+      <c r="C98">
+        <v>1025</v>
+      </c>
+      <c r="E98" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>12</v>
+      </c>
+      <c r="B99" t="s">
+        <v>134</v>
+      </c>
+      <c r="C99">
+        <v>1026</v>
+      </c>
+      <c r="E99" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>12</v>
+      </c>
+      <c r="B100" t="s">
+        <v>134</v>
+      </c>
+      <c r="C100">
+        <v>1026</v>
+      </c>
+      <c r="E100" t="s">
+        <v>42</v>
+      </c>
+      <c r="F100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>12</v>
+      </c>
+      <c r="B101" t="s">
+        <v>134</v>
+      </c>
+      <c r="C101">
+        <v>1026</v>
+      </c>
+      <c r="E101" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>12</v>
+      </c>
+      <c r="B102" t="s">
+        <v>134</v>
+      </c>
+      <c r="C102">
+        <v>1026</v>
+      </c>
+      <c r="D102">
+        <v>4</v>
+      </c>
+      <c r="E102" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>12</v>
+      </c>
+      <c r="B103" t="s">
+        <v>134</v>
+      </c>
+      <c r="C103">
+        <v>1027</v>
+      </c>
+      <c r="E103" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>12</v>
+      </c>
+      <c r="B104" t="s">
+        <v>134</v>
+      </c>
+      <c r="C104">
+        <v>1027</v>
+      </c>
+      <c r="E104" t="s">
+        <v>96</v>
+      </c>
+      <c r="F104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>12</v>
+      </c>
+      <c r="B105" t="s">
+        <v>134</v>
+      </c>
+      <c r="C105">
+        <v>1027</v>
+      </c>
+      <c r="E105" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>12</v>
+      </c>
+      <c r="B106" t="s">
+        <v>134</v>
+      </c>
+      <c r="C106">
+        <v>1027</v>
+      </c>
+      <c r="D106">
+        <v>4</v>
+      </c>
+      <c r="E106" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>12</v>
+      </c>
+      <c r="B107" t="s">
+        <v>134</v>
+      </c>
+      <c r="C107">
+        <v>1028</v>
+      </c>
+      <c r="E107" t="s">
+        <v>93</v>
+      </c>
+      <c r="F107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>12</v>
+      </c>
+      <c r="B108" t="s">
+        <v>134</v>
+      </c>
+      <c r="C108">
+        <v>1028</v>
+      </c>
+      <c r="E108" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>12</v>
+      </c>
+      <c r="B109" t="s">
+        <v>134</v>
+      </c>
+      <c r="C109">
+        <v>1028</v>
+      </c>
+      <c r="E109" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>12</v>
+      </c>
+      <c r="B110" t="s">
+        <v>134</v>
+      </c>
+      <c r="C110">
+        <v>1028</v>
+      </c>
+      <c r="E110" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>12</v>
+      </c>
+      <c r="B111" t="s">
+        <v>134</v>
+      </c>
+      <c r="C111">
+        <v>1029</v>
+      </c>
+      <c r="E111" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>12</v>
+      </c>
+      <c r="B112" t="s">
+        <v>134</v>
+      </c>
+      <c r="C112">
+        <v>1029</v>
+      </c>
+      <c r="E112" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>12</v>
+      </c>
+      <c r="B113" t="s">
+        <v>134</v>
+      </c>
+      <c r="C113">
+        <v>1029</v>
+      </c>
+      <c r="E113" t="s">
+        <v>137</v>
+      </c>
+      <c r="F113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>12</v>
+      </c>
+      <c r="B114" t="s">
+        <v>134</v>
+      </c>
+      <c r="C114">
+        <v>1029</v>
+      </c>
+      <c r="E114" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>12</v>
+      </c>
+      <c r="B115" t="s">
+        <v>134</v>
+      </c>
+      <c r="C115">
+        <v>1030</v>
+      </c>
+      <c r="E115" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>12</v>
+      </c>
+      <c r="B116" t="s">
+        <v>134</v>
+      </c>
+      <c r="C116">
+        <v>1030</v>
+      </c>
+      <c r="E116" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>12</v>
+      </c>
+      <c r="B117" t="s">
+        <v>134</v>
+      </c>
+      <c r="C117">
+        <v>1030</v>
+      </c>
+      <c r="E117" t="s">
+        <v>140</v>
+      </c>
+      <c r="F117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>12</v>
+      </c>
+      <c r="B118" t="s">
+        <v>134</v>
+      </c>
+      <c r="C118">
+        <v>1030</v>
+      </c>
+      <c r="E118" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>12</v>
+      </c>
+      <c r="B119" t="s">
+        <v>134</v>
+      </c>
+      <c r="C119">
+        <v>1031</v>
+      </c>
+      <c r="E119" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>12</v>
+      </c>
+      <c r="B120" t="s">
+        <v>134</v>
+      </c>
+      <c r="C120">
+        <v>1031</v>
+      </c>
+      <c r="E120" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>12</v>
+      </c>
+      <c r="B121" t="s">
+        <v>134</v>
+      </c>
+      <c r="C121">
+        <v>1031</v>
+      </c>
+      <c r="E121" t="s">
+        <v>143</v>
+      </c>
+      <c r="F121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>12</v>
+      </c>
+      <c r="B122" t="s">
+        <v>134</v>
+      </c>
+      <c r="C122">
+        <v>1031</v>
+      </c>
+      <c r="E122" t="s">
+        <v>144</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
